--- a/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_AddDuanbds_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_AddDuanbds_ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48205A39-DFC4-4D20-9ED0-1C38748DBFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E815FDD9-9366-47B6-AC7E-60A63EA86DBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="187">
   <si>
     <t>Author</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>1.1</t>
-  </si>
-  <si>
-    <t>Follow new version of template</t>
   </si>
   <si>
     <t>GUI</t>
@@ -720,6 +717,12 @@
 - vị trí : 45 Cây keo , q Thủ đức 
 - giá : 1 tỷ 3</t>
     </r>
+  </si>
+  <si>
+    <t>TC-BDS-TDA-17</t>
+  </si>
+  <si>
+    <t>update defect</t>
   </si>
 </sst>
 </file>
@@ -1548,6 +1551,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,30 +1602,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1660,21 +1669,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,54 +1733,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2054,8 +2057,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2070,31 +2073,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -2118,7 +2121,7 @@
         <v>43916</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>25</v>
@@ -2132,7 +2135,7 @@
         <v>43932</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>27</v>
@@ -2142,24 +2145,28 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>43957</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43958</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2169,21 +2176,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="B12" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2192,54 +2199,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2266,7 +2273,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -2284,80 +2291,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="F2" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="82"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="68"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2373,7 +2380,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>33</v>
@@ -2390,11 +2397,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -2410,11 +2417,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -2430,11 +2437,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>36</v>
@@ -2450,11 +2457,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>37</v>
@@ -2470,11 +2477,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>37</v>
@@ -2490,11 +2497,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>36</v>
@@ -2510,13 +2517,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>35</v>
@@ -2532,13 +2539,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>35</v>
@@ -2554,13 +2561,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>35</v>
@@ -2576,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>35</v>
@@ -2598,13 +2605,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>35</v>
@@ -2620,13 +2627,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>35</v>
@@ -2642,13 +2649,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>35</v>
@@ -2663,13 +2670,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>35</v>
@@ -2684,13 +2691,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>35</v>
@@ -2705,13 +2712,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>35</v>
@@ -2771,8 +2778,8 @@
   <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="A50:XFD76"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139:D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2790,17 +2797,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="A1" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2816,13 +2823,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
@@ -2839,1643 +2846,1643 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="108"/>
+      <c r="A4" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83">
+      <c r="A5" s="85">
         <v>1</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>101</v>
+      <c r="B5" s="97" t="s">
+        <v>100</v>
       </c>
       <c r="C5" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>120</v>
+      <c r="E5" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="38"/>
-      <c r="I5" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="104" t="s">
-        <v>179</v>
+      <c r="I5" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="88"/>
       <c r="D6" s="90"/>
-      <c r="E6" s="94"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="88"/>
       <c r="D7" s="90"/>
-      <c r="E7" s="94"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="88"/>
       <c r="D8" s="90"/>
-      <c r="E8" s="94"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="105"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="88"/>
       <c r="D9" s="90"/>
-      <c r="E9" s="94"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="44">
         <v>6</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J9" s="94"/>
     </row>
     <row r="10" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="88"/>
       <c r="D10" s="90"/>
-      <c r="E10" s="94"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="44">
         <v>7</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="88"/>
       <c r="D11" s="90"/>
-      <c r="E11" s="94"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="44">
         <v>8</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="88"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="94"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="44">
         <v>9</v>
       </c>
       <c r="G12" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I12" s="33"/>
-      <c r="J12" s="105"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="88"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="94"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="44">
         <v>10</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" s="106"/>
+        <v>122</v>
+      </c>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83">
+      <c r="A14" s="85">
         <v>1</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>102</v>
+      <c r="B14" s="97" t="s">
+        <v>101</v>
       </c>
       <c r="C14" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>120</v>
+      <c r="E14" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F14" s="44">
         <v>1</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="38"/>
-      <c r="I14" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="104" t="s">
-        <v>179</v>
+      <c r="I14" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="88"/>
       <c r="D15" s="90"/>
-      <c r="E15" s="94"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="44">
         <v>2</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="86"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="88"/>
       <c r="D16" s="90"/>
-      <c r="E16" s="94"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="44">
         <v>3</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="86"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="88"/>
       <c r="D17" s="90"/>
-      <c r="E17" s="94"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="44">
         <v>4</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="33"/>
-      <c r="J17" s="105"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="86"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="88"/>
       <c r="D18" s="90"/>
-      <c r="E18" s="94"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="44">
         <v>6</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J18" s="94"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="88"/>
       <c r="D19" s="90"/>
-      <c r="E19" s="94"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="44">
         <v>7</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J19" s="94"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="86"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="88"/>
       <c r="D20" s="90"/>
-      <c r="E20" s="94"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="44">
         <v>8</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="88"/>
       <c r="D21" s="90"/>
-      <c r="E21" s="94"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="44">
         <v>9</v>
       </c>
       <c r="G21" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I21" s="33"/>
-      <c r="J21" s="105"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="86"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="88"/>
       <c r="D22" s="90"/>
-      <c r="E22" s="94"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="44">
         <v>10</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="106"/>
+        <v>122</v>
+      </c>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83">
+      <c r="A23" s="85">
         <v>1</v>
       </c>
-      <c r="B23" s="85" t="s">
-        <v>103</v>
+      <c r="B23" s="97" t="s">
+        <v>102</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="93" t="s">
-        <v>120</v>
+        <v>145</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F23" s="44">
         <v>1</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="38"/>
-      <c r="I23" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="104" t="s">
-        <v>180</v>
+      <c r="I23" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="88"/>
       <c r="D24" s="90"/>
-      <c r="E24" s="94"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="44">
         <v>2</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J24" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J24" s="94"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="88"/>
       <c r="D25" s="90"/>
-      <c r="E25" s="94"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="44">
         <v>3</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J25" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J25" s="94"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="88"/>
       <c r="D26" s="90"/>
-      <c r="E26" s="94"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="44">
         <v>4</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I26" s="33"/>
-      <c r="J26" s="105"/>
+      <c r="J26" s="94"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="88"/>
       <c r="D27" s="90"/>
-      <c r="E27" s="94"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="44">
         <v>6</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J27" s="94"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
-      <c r="B28" s="86"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="88"/>
       <c r="D28" s="90"/>
-      <c r="E28" s="94"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="44">
         <v>7</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J28" s="94"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
-      <c r="B29" s="86"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="88"/>
       <c r="D29" s="90"/>
-      <c r="E29" s="94"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="44">
         <v>8</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" s="40"/>
       <c r="I29" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="86"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="88"/>
       <c r="D30" s="90"/>
-      <c r="E30" s="94"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="44">
         <v>9</v>
       </c>
       <c r="G30" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I30" s="33"/>
-      <c r="J30" s="105"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="88"/>
       <c r="D31" s="90"/>
-      <c r="E31" s="94"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="44">
         <v>10</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" s="106"/>
+        <v>122</v>
+      </c>
+      <c r="J31" s="95"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83">
+      <c r="A32" s="85">
         <v>1</v>
       </c>
-      <c r="B32" s="86"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="93" t="s">
-        <v>120</v>
+      <c r="E32" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F32" s="44">
         <v>1</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H32" s="38"/>
-      <c r="I32" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="104" t="s">
-        <v>180</v>
+      <c r="I32" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84"/>
-      <c r="B33" s="86"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="88"/>
       <c r="D33" s="90"/>
-      <c r="E33" s="94"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="44">
         <v>2</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H33" s="40"/>
       <c r="I33" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J33" s="94"/>
     </row>
     <row r="34" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="84"/>
-      <c r="B34" s="86"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="88"/>
       <c r="D34" s="90"/>
-      <c r="E34" s="94"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="44">
         <v>3</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="40"/>
       <c r="I34" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J34" s="94"/>
     </row>
     <row r="35" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
-      <c r="B35" s="86"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="88"/>
       <c r="D35" s="90"/>
-      <c r="E35" s="94"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="44">
         <v>4</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I35" s="33"/>
-      <c r="J35" s="105"/>
+      <c r="J35" s="94"/>
     </row>
     <row r="36" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="84"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="88"/>
       <c r="D36" s="90"/>
-      <c r="E36" s="94"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="44">
         <v>6</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J36" s="94"/>
     </row>
     <row r="37" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="84"/>
-      <c r="B37" s="86"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="88"/>
       <c r="D37" s="90"/>
-      <c r="E37" s="94"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="44">
         <v>7</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J37" s="94"/>
     </row>
     <row r="38" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="88"/>
       <c r="D38" s="90"/>
-      <c r="E38" s="94"/>
+      <c r="E38" s="92"/>
       <c r="F38" s="44">
         <v>8</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J38" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J38" s="94"/>
     </row>
     <row r="39" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="84"/>
-      <c r="B39" s="86"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="88"/>
       <c r="D39" s="90"/>
-      <c r="E39" s="94"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="44">
         <v>9</v>
       </c>
       <c r="G39" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H39" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I39" s="33"/>
-      <c r="J39" s="105"/>
+      <c r="J39" s="94"/>
     </row>
     <row r="40" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="84"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="101"/>
       <c r="C40" s="88"/>
       <c r="D40" s="90"/>
-      <c r="E40" s="94"/>
+      <c r="E40" s="92"/>
       <c r="F40" s="44">
         <v>10</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="40"/>
       <c r="I40" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="95"/>
+    </row>
+    <row r="41" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="85">
+        <v>1</v>
+      </c>
+      <c r="B41" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="106"/>
-    </row>
-    <row r="41" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="83">
-        <v>1</v>
-      </c>
-      <c r="B41" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>150</v>
-      </c>
       <c r="D41" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="93" t="s">
-        <v>120</v>
+        <v>64</v>
+      </c>
+      <c r="E41" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F41" s="44">
         <v>1</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" s="38"/>
-      <c r="I41" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="104" t="s">
-        <v>180</v>
+      <c r="I41" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="84"/>
-      <c r="B42" s="86"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="88"/>
       <c r="D42" s="90"/>
-      <c r="E42" s="94"/>
+      <c r="E42" s="92"/>
       <c r="F42" s="44">
         <v>2</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42" s="40"/>
       <c r="I42" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J42" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
-      <c r="B43" s="86"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="88"/>
       <c r="D43" s="90"/>
-      <c r="E43" s="94"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="44">
         <v>3</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J43" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J43" s="94"/>
     </row>
     <row r="44" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="84"/>
-      <c r="B44" s="86"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="88"/>
       <c r="D44" s="90"/>
-      <c r="E44" s="94"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="44">
         <v>4</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="33"/>
-      <c r="J44" s="105"/>
+      <c r="J44" s="94"/>
     </row>
     <row r="45" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="84"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="88"/>
       <c r="D45" s="90"/>
-      <c r="E45" s="94"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="44">
         <v>6</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J45" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J45" s="94"/>
     </row>
     <row r="46" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="86"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="88"/>
       <c r="D46" s="90"/>
-      <c r="E46" s="94"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="44">
         <v>7</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I46" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J46" s="94"/>
     </row>
     <row r="47" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="84"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="88"/>
       <c r="D47" s="90"/>
-      <c r="E47" s="94"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="44">
         <v>8</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J47" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J47" s="94"/>
     </row>
     <row r="48" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="84"/>
-      <c r="B48" s="86"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="88"/>
       <c r="D48" s="90"/>
-      <c r="E48" s="94"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="44">
         <v>9</v>
       </c>
       <c r="G48" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H48" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I48" s="33"/>
-      <c r="J48" s="105"/>
+      <c r="J48" s="94"/>
     </row>
     <row r="49" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="84"/>
-      <c r="B49" s="86"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="88"/>
       <c r="D49" s="90"/>
-      <c r="E49" s="94"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="44">
         <v>10</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H49" s="40"/>
       <c r="I49" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="95"/>
+    </row>
+    <row r="50" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="85">
+        <v>1</v>
+      </c>
+      <c r="B50" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="J49" s="106"/>
-    </row>
-    <row r="50" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="83">
-        <v>1</v>
-      </c>
-      <c r="B50" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="87" t="s">
+      <c r="D50" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="93" t="s">
-        <v>120</v>
+      <c r="E50" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" s="38"/>
-      <c r="I50" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="104" t="s">
-        <v>179</v>
+      <c r="I50" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="84"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="88"/>
       <c r="C51" s="88"/>
       <c r="D51" s="90"/>
-      <c r="E51" s="94"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="44">
         <v>2</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J51" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J51" s="94"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="84"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="88"/>
       <c r="C52" s="88"/>
       <c r="D52" s="90"/>
-      <c r="E52" s="94"/>
+      <c r="E52" s="92"/>
       <c r="F52" s="44">
         <v>3</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J52" s="94"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="84"/>
+      <c r="A53" s="86"/>
       <c r="B53" s="88"/>
       <c r="C53" s="88"/>
       <c r="D53" s="90"/>
-      <c r="E53" s="94"/>
+      <c r="E53" s="92"/>
       <c r="F53" s="44">
         <v>4</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="33"/>
-      <c r="J53" s="105"/>
+      <c r="J53" s="94"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="88"/>
       <c r="C54" s="88"/>
       <c r="D54" s="90"/>
-      <c r="E54" s="94"/>
+      <c r="E54" s="92"/>
       <c r="F54" s="44">
         <v>6</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H54" s="40"/>
       <c r="I54" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J54" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J54" s="94"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="84"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="88"/>
       <c r="C55" s="88"/>
       <c r="D55" s="90"/>
-      <c r="E55" s="94"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="44">
         <v>7</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J55" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J55" s="94"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="84"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="88"/>
       <c r="C56" s="88"/>
       <c r="D56" s="90"/>
-      <c r="E56" s="94"/>
+      <c r="E56" s="92"/>
       <c r="F56" s="44">
         <v>8</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H56" s="40"/>
       <c r="I56" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J56" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J56" s="94"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="84"/>
+      <c r="A57" s="86"/>
       <c r="B57" s="88"/>
       <c r="C57" s="88"/>
       <c r="D57" s="90"/>
-      <c r="E57" s="94"/>
+      <c r="E57" s="92"/>
       <c r="F57" s="44">
         <v>9</v>
       </c>
       <c r="G57" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H57" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I57" s="33"/>
-      <c r="J57" s="105"/>
+      <c r="J57" s="94"/>
     </row>
     <row r="58" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="84"/>
+      <c r="A58" s="86"/>
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="94"/>
+      <c r="E58" s="92"/>
       <c r="F58" s="44">
         <v>10</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H58" s="40"/>
       <c r="I58" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="J58" s="106"/>
+        <v>155</v>
+      </c>
+      <c r="J58" s="95"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="83">
+      <c r="A59" s="85">
         <v>1</v>
       </c>
       <c r="B59" s="88"/>
       <c r="C59" s="87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="93" t="s">
-        <v>120</v>
+        <v>153</v>
+      </c>
+      <c r="E59" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H59" s="38"/>
-      <c r="I59" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J59" s="104" t="s">
-        <v>180</v>
+      <c r="I59" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" s="93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="84"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="88"/>
       <c r="C60" s="88"/>
       <c r="D60" s="90"/>
-      <c r="E60" s="94"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="44">
         <v>2</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J60" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="84"/>
+      <c r="A61" s="86"/>
       <c r="B61" s="88"/>
       <c r="C61" s="88"/>
       <c r="D61" s="90"/>
-      <c r="E61" s="94"/>
+      <c r="E61" s="92"/>
       <c r="F61" s="44">
         <v>3</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H61" s="40"/>
       <c r="I61" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J61" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J61" s="94"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="84"/>
+      <c r="A62" s="86"/>
       <c r="B62" s="88"/>
       <c r="C62" s="88"/>
       <c r="D62" s="90"/>
-      <c r="E62" s="94"/>
+      <c r="E62" s="92"/>
       <c r="F62" s="44">
         <v>4</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I62" s="33"/>
-      <c r="J62" s="105"/>
+      <c r="J62" s="94"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="84"/>
+      <c r="A63" s="86"/>
       <c r="B63" s="88"/>
       <c r="C63" s="88"/>
       <c r="D63" s="90"/>
-      <c r="E63" s="94"/>
+      <c r="E63" s="92"/>
       <c r="F63" s="44">
         <v>6</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J63" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J63" s="94"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="84"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="88"/>
       <c r="C64" s="88"/>
       <c r="D64" s="90"/>
-      <c r="E64" s="94"/>
+      <c r="E64" s="92"/>
       <c r="F64" s="44">
         <v>7</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J64" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J64" s="94"/>
     </row>
     <row r="65" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="84"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="88"/>
       <c r="C65" s="88"/>
       <c r="D65" s="90"/>
-      <c r="E65" s="94"/>
+      <c r="E65" s="92"/>
       <c r="F65" s="44">
         <v>8</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H65" s="40"/>
       <c r="I65" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J65" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J65" s="94"/>
     </row>
     <row r="66" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="84"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="88"/>
       <c r="C66" s="88"/>
       <c r="D66" s="90"/>
-      <c r="E66" s="94"/>
+      <c r="E66" s="92"/>
       <c r="F66" s="44">
         <v>9</v>
       </c>
       <c r="G66" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H66" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I66" s="33"/>
-      <c r="J66" s="105"/>
+      <c r="J66" s="94"/>
     </row>
     <row r="67" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="84"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="88"/>
       <c r="C67" s="88"/>
       <c r="D67" s="90"/>
-      <c r="E67" s="94"/>
+      <c r="E67" s="92"/>
       <c r="F67" s="44">
         <v>10</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="J67" s="106"/>
+        <v>155</v>
+      </c>
+      <c r="J67" s="95"/>
     </row>
     <row r="68" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="83">
+      <c r="A68" s="85">
         <v>1</v>
       </c>
       <c r="B68" s="88"/>
       <c r="C68" s="87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D68" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="93" t="s">
-        <v>120</v>
+        <v>153</v>
+      </c>
+      <c r="E68" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F68" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H68" s="38"/>
-      <c r="I68" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J68" s="104" t="s">
-        <v>180</v>
+      <c r="I68" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J68" s="93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="84"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="88"/>
       <c r="C69" s="88"/>
       <c r="D69" s="90"/>
-      <c r="E69" s="94"/>
+      <c r="E69" s="92"/>
       <c r="F69" s="44">
         <v>2</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H69" s="40"/>
       <c r="I69" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J69" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J69" s="94"/>
     </row>
     <row r="70" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="84"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="88"/>
       <c r="C70" s="88"/>
       <c r="D70" s="90"/>
-      <c r="E70" s="94"/>
+      <c r="E70" s="92"/>
       <c r="F70" s="44">
         <v>3</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H70" s="40"/>
       <c r="I70" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J70" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J70" s="94"/>
     </row>
     <row r="71" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="84"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="88"/>
       <c r="C71" s="88"/>
       <c r="D71" s="90"/>
-      <c r="E71" s="94"/>
+      <c r="E71" s="92"/>
       <c r="F71" s="44">
         <v>4</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I71" s="33"/>
-      <c r="J71" s="105"/>
+      <c r="J71" s="94"/>
     </row>
     <row r="72" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="84"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="88"/>
       <c r="C72" s="88"/>
       <c r="D72" s="90"/>
-      <c r="E72" s="94"/>
+      <c r="E72" s="92"/>
       <c r="F72" s="44">
         <v>6</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H72" s="40"/>
       <c r="I72" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J72" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J72" s="94"/>
     </row>
     <row r="73" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="84"/>
+      <c r="A73" s="86"/>
       <c r="B73" s="88"/>
       <c r="C73" s="88"/>
       <c r="D73" s="90"/>
-      <c r="E73" s="94"/>
+      <c r="E73" s="92"/>
       <c r="F73" s="44">
         <v>7</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J73" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J73" s="94"/>
     </row>
     <row r="74" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="84"/>
+      <c r="A74" s="86"/>
       <c r="B74" s="88"/>
       <c r="C74" s="88"/>
       <c r="D74" s="90"/>
-      <c r="E74" s="94"/>
+      <c r="E74" s="92"/>
       <c r="F74" s="44">
         <v>8</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H74" s="40"/>
       <c r="I74" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J74" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J74" s="94"/>
     </row>
     <row r="75" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="84"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="88"/>
       <c r="C75" s="88"/>
       <c r="D75" s="90"/>
-      <c r="E75" s="94"/>
+      <c r="E75" s="92"/>
       <c r="F75" s="44">
         <v>9</v>
       </c>
       <c r="G75" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H75" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H75" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I75" s="33"/>
-      <c r="J75" s="105"/>
+      <c r="J75" s="94"/>
     </row>
     <row r="76" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="84"/>
-      <c r="B76" s="102"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="96"/>
       <c r="C76" s="88"/>
       <c r="D76" s="90"/>
-      <c r="E76" s="94"/>
+      <c r="E76" s="92"/>
       <c r="F76" s="44">
         <v>10</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H76" s="40"/>
       <c r="I76" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="J76" s="95"/>
+    </row>
+    <row r="77" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="85">
+        <v>1</v>
+      </c>
+      <c r="B77" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="J76" s="106"/>
-    </row>
-    <row r="77" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="83">
-        <v>1</v>
-      </c>
-      <c r="B77" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="87" t="s">
-        <v>157</v>
-      </c>
       <c r="D77" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="93" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="E77" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F77" s="44">
         <v>1</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J77" s="104" t="s">
-        <v>180</v>
+      <c r="I77" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J77" s="93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="84"/>
-      <c r="B78" s="86"/>
+      <c r="A78" s="86"/>
+      <c r="B78" s="98"/>
       <c r="C78" s="88"/>
       <c r="D78" s="90"/>
-      <c r="E78" s="94"/>
+      <c r="E78" s="92"/>
       <c r="F78" s="44">
         <v>2</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J78" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J78" s="94"/>
     </row>
     <row r="79" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="84"/>
-      <c r="B79" s="86"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="98"/>
       <c r="C79" s="88"/>
       <c r="D79" s="90"/>
-      <c r="E79" s="94"/>
+      <c r="E79" s="92"/>
       <c r="F79" s="44">
         <v>3</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J79" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J79" s="94"/>
     </row>
     <row r="80" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="84"/>
-      <c r="B80" s="86"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="98"/>
       <c r="C80" s="88"/>
       <c r="D80" s="90"/>
-      <c r="E80" s="94"/>
+      <c r="E80" s="92"/>
       <c r="F80" s="44">
         <v>4</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I80" s="33"/>
-      <c r="J80" s="105"/>
+      <c r="J80" s="94"/>
     </row>
     <row r="81" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="84"/>
-      <c r="B81" s="86"/>
+      <c r="A81" s="86"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="88"/>
       <c r="D81" s="90"/>
-      <c r="E81" s="94"/>
+      <c r="E81" s="92"/>
       <c r="F81" s="44">
         <v>6</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J81" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J81" s="94"/>
     </row>
     <row r="82" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="84"/>
-      <c r="B82" s="86"/>
+      <c r="A82" s="86"/>
+      <c r="B82" s="98"/>
       <c r="C82" s="88"/>
       <c r="D82" s="90"/>
-      <c r="E82" s="94"/>
+      <c r="E82" s="92"/>
       <c r="F82" s="44">
         <v>7</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I82" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J82" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J82" s="94"/>
     </row>
     <row r="83" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="84"/>
-      <c r="B83" s="86"/>
+      <c r="A83" s="86"/>
+      <c r="B83" s="98"/>
       <c r="C83" s="88"/>
       <c r="D83" s="90"/>
-      <c r="E83" s="94"/>
+      <c r="E83" s="92"/>
       <c r="F83" s="44">
         <v>8</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J83" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J83" s="94"/>
     </row>
     <row r="84" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="84"/>
-      <c r="B84" s="86"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="88"/>
       <c r="D84" s="90"/>
-      <c r="E84" s="94"/>
+      <c r="E84" s="92"/>
       <c r="F84" s="44">
         <v>9</v>
       </c>
       <c r="G84" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H84" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H84" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I84" s="33"/>
-      <c r="J84" s="105"/>
+      <c r="J84" s="94"/>
     </row>
     <row r="85" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="84"/>
-      <c r="B85" s="86"/>
+      <c r="A85" s="86"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="88"/>
       <c r="D85" s="90"/>
-      <c r="E85" s="94"/>
+      <c r="E85" s="92"/>
       <c r="F85" s="44">
         <v>10</v>
       </c>
       <c r="G85" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J85" s="95"/>
+    </row>
+    <row r="86" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+    </row>
+    <row r="87" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="85">
+        <v>21</v>
+      </c>
+      <c r="B87" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="J85" s="106"/>
-    </row>
-    <row r="86" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="91"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-    </row>
-    <row r="87" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="83">
-        <v>21</v>
-      </c>
-      <c r="B87" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="87" t="s">
-        <v>160</v>
-      </c>
       <c r="D87" s="89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E87" s="89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F87" s="44">
         <v>1</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H87" s="38"/>
-      <c r="I87" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J87" s="104" t="s">
-        <v>179</v>
+      <c r="I87" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="84"/>
-      <c r="B88" s="86"/>
+      <c r="A88" s="86"/>
+      <c r="B88" s="98"/>
       <c r="C88" s="88"/>
       <c r="D88" s="90"/>
       <c r="E88" s="90"/>
@@ -4483,47 +4490,47 @@
         <v>2</v>
       </c>
       <c r="G88" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J88" s="95"/>
+    </row>
+    <row r="89" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="85">
+        <v>21</v>
+      </c>
+      <c r="B89" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="J88" s="106"/>
-    </row>
-    <row r="89" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="83">
-        <v>21</v>
-      </c>
-      <c r="B89" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="89" t="s">
-        <v>128</v>
-      </c>
       <c r="E89" s="89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F89" s="44">
         <v>1</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H89" s="38"/>
-      <c r="I89" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J89" s="104" t="s">
-        <v>179</v>
+      <c r="I89" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J89" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="84"/>
-      <c r="B90" s="86"/>
+      <c r="A90" s="86"/>
+      <c r="B90" s="98"/>
       <c r="C90" s="88"/>
       <c r="D90" s="90"/>
       <c r="E90" s="90"/>
@@ -4531,17 +4538,17 @@
         <v>2</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="J90" s="105"/>
+        <v>126</v>
+      </c>
+      <c r="J90" s="94"/>
     </row>
     <row r="91" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="84"/>
-      <c r="B91" s="86"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="98"/>
       <c r="C91" s="88"/>
       <c r="D91" s="90"/>
       <c r="E91" s="90"/>
@@ -4549,47 +4556,47 @@
         <v>4</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H91" s="40"/>
       <c r="I91" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="J91" s="106"/>
+        <v>129</v>
+      </c>
+      <c r="J91" s="95"/>
     </row>
     <row r="92" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83">
+      <c r="A92" s="85">
         <v>21</v>
       </c>
-      <c r="B92" s="85" t="s">
-        <v>109</v>
+      <c r="B92" s="97" t="s">
+        <v>108</v>
       </c>
       <c r="C92" s="87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D92" s="89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E92" s="89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F92" s="44">
         <v>1</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H92" s="38"/>
       <c r="I92" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="J92" s="104" t="s">
-        <v>180</v>
+        <v>54</v>
+      </c>
+      <c r="J92" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="39" customFormat="1" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="84"/>
-      <c r="B93" s="86"/>
+      <c r="A93" s="86"/>
+      <c r="B93" s="98"/>
       <c r="C93" s="88"/>
       <c r="D93" s="90"/>
       <c r="E93" s="90"/>
@@ -4597,45 +4604,45 @@
         <v>2</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="J93" s="106"/>
+        <v>134</v>
+      </c>
+      <c r="J93" s="95"/>
     </row>
     <row r="94" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="97"/>
-      <c r="B94" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="95" t="s">
-        <v>167</v>
+      <c r="A94" s="99"/>
+      <c r="B94" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" s="102" t="s">
+        <v>166</v>
       </c>
       <c r="F94" s="44">
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H94" s="38"/>
-      <c r="I94" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J94" s="104" t="s">
-        <v>179</v>
+      <c r="I94" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J94" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="88"/>
-      <c r="B95" s="86"/>
+      <c r="B95" s="98"/>
       <c r="C95" s="88"/>
       <c r="D95" s="90"/>
       <c r="E95" s="90"/>
@@ -4643,17 +4650,17 @@
         <v>2</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H95" s="40"/>
       <c r="I95" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="J95" s="105"/>
+        <v>130</v>
+      </c>
+      <c r="J95" s="94"/>
     </row>
     <row r="96" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="88"/>
-      <c r="B96" s="86"/>
+      <c r="B96" s="98"/>
       <c r="C96" s="88"/>
       <c r="D96" s="90"/>
       <c r="E96" s="90"/>
@@ -4661,17 +4668,17 @@
         <v>3</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H96" s="40"/>
       <c r="I96" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="J96" s="105"/>
+        <v>164</v>
+      </c>
+      <c r="J96" s="94"/>
     </row>
     <row r="97" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="88"/>
-      <c r="B97" s="86"/>
+      <c r="B97" s="98"/>
       <c r="C97" s="88"/>
       <c r="D97" s="90"/>
       <c r="E97" s="90"/>
@@ -4679,61 +4686,61 @@
         <v>4</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H97" s="40"/>
       <c r="I97" s="33"/>
-      <c r="J97" s="105"/>
+      <c r="J97" s="94"/>
     </row>
     <row r="98" spans="1:10" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="98"/>
-      <c r="B98" s="100"/>
-      <c r="C98" s="98"/>
-      <c r="D98" s="96"/>
-      <c r="E98" s="96"/>
+      <c r="A98" s="105"/>
+      <c r="B98" s="106"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="104"/>
+      <c r="E98" s="104"/>
       <c r="F98" s="44">
         <v>5</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H98" s="40"/>
       <c r="I98" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J98" s="106"/>
+        <v>62</v>
+      </c>
+      <c r="J98" s="95"/>
     </row>
     <row r="99" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="97"/>
-      <c r="B99" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="97" t="s">
+      <c r="A99" s="99"/>
+      <c r="B99" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E99" s="102" t="s">
         <v>166</v>
-      </c>
-      <c r="D99" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E99" s="95" t="s">
-        <v>167</v>
       </c>
       <c r="F99" s="44">
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H99" s="38"/>
-      <c r="I99" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J99" s="104" t="s">
-        <v>179</v>
+      <c r="I99" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J99" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="88"/>
-      <c r="B100" s="86"/>
+      <c r="B100" s="98"/>
       <c r="C100" s="88"/>
       <c r="D100" s="90"/>
       <c r="E100" s="90"/>
@@ -4741,17 +4748,17 @@
         <v>2</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H100" s="40"/>
       <c r="I100" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="J100" s="105"/>
+        <v>130</v>
+      </c>
+      <c r="J100" s="94"/>
     </row>
     <row r="101" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="88"/>
-      <c r="B101" s="86"/>
+      <c r="B101" s="98"/>
       <c r="C101" s="88"/>
       <c r="D101" s="90"/>
       <c r="E101" s="90"/>
@@ -4759,17 +4766,17 @@
         <v>3</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H101" s="40"/>
       <c r="I101" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="J101" s="105"/>
+        <v>164</v>
+      </c>
+      <c r="J101" s="94"/>
     </row>
     <row r="102" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="88"/>
-      <c r="B102" s="86"/>
+      <c r="B102" s="98"/>
       <c r="C102" s="88"/>
       <c r="D102" s="90"/>
       <c r="E102" s="90"/>
@@ -4777,19 +4784,19 @@
         <v>4</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="J102" s="105"/>
+        <v>164</v>
+      </c>
+      <c r="J102" s="94"/>
     </row>
     <row r="103" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="88"/>
-      <c r="B103" s="86"/>
+      <c r="B103" s="98"/>
       <c r="C103" s="88"/>
       <c r="D103" s="90"/>
       <c r="E103" s="90"/>
@@ -4797,729 +4804,731 @@
         <v>5</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H103" s="40"/>
       <c r="I103" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="J103" s="105"/>
+        <v>81</v>
+      </c>
+      <c r="J103" s="94"/>
     </row>
     <row r="104" spans="1:10" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="102"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="101"/>
-      <c r="C104" s="102"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="103"/>
       <c r="E104" s="103"/>
       <c r="F104" s="44">
         <v>6</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H104" s="40"/>
       <c r="I104" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="J104" s="106"/>
+        <v>80</v>
+      </c>
+      <c r="J104" s="95"/>
     </row>
     <row r="105" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="83">
+      <c r="A105" s="85">
         <v>1</v>
       </c>
-      <c r="B105" s="85" t="s">
-        <v>112</v>
+      <c r="B105" s="97" t="s">
+        <v>111</v>
       </c>
       <c r="C105" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="D105" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="E105" s="93" t="s">
-        <v>124</v>
+      <c r="E105" s="91" t="s">
+        <v>123</v>
       </c>
       <c r="F105" s="44">
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H105" s="38"/>
-      <c r="I105" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J105" s="104"/>
+      <c r="I105" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J105" s="93" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="106" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="84"/>
-      <c r="B106" s="86"/>
+      <c r="A106" s="86"/>
+      <c r="B106" s="98"/>
       <c r="C106" s="88"/>
       <c r="D106" s="90"/>
-      <c r="E106" s="94"/>
+      <c r="E106" s="92"/>
       <c r="F106" s="44">
         <v>2</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H106" s="40"/>
       <c r="I106" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J106" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J106" s="94"/>
     </row>
     <row r="107" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="84"/>
-      <c r="B107" s="86"/>
+      <c r="A107" s="86"/>
+      <c r="B107" s="98"/>
       <c r="C107" s="88"/>
       <c r="D107" s="90"/>
-      <c r="E107" s="94"/>
+      <c r="E107" s="92"/>
       <c r="F107" s="44">
         <v>3</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H107" s="40"/>
       <c r="I107" s="33"/>
-      <c r="J107" s="105"/>
+      <c r="J107" s="94"/>
     </row>
     <row r="108" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="84"/>
-      <c r="B108" s="86"/>
+      <c r="A108" s="86"/>
+      <c r="B108" s="98"/>
       <c r="C108" s="88"/>
       <c r="D108" s="90"/>
-      <c r="E108" s="94"/>
+      <c r="E108" s="92"/>
       <c r="F108" s="44">
         <v>5</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I108" s="33"/>
-      <c r="J108" s="105"/>
+      <c r="J108" s="94"/>
     </row>
     <row r="109" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="84"/>
-      <c r="B109" s="86"/>
+      <c r="A109" s="86"/>
+      <c r="B109" s="98"/>
       <c r="C109" s="88"/>
       <c r="D109" s="90"/>
-      <c r="E109" s="94"/>
+      <c r="E109" s="92"/>
       <c r="F109" s="44">
         <v>6</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H109" s="40"/>
       <c r="I109" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J109" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J109" s="94"/>
     </row>
     <row r="110" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="84"/>
-      <c r="B110" s="86"/>
+      <c r="A110" s="86"/>
+      <c r="B110" s="98"/>
       <c r="C110" s="88"/>
       <c r="D110" s="90"/>
-      <c r="E110" s="94"/>
+      <c r="E110" s="92"/>
       <c r="F110" s="44">
         <v>7</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H110" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I110" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J110" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J110" s="94"/>
     </row>
     <row r="111" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="84"/>
-      <c r="B111" s="86"/>
+      <c r="A111" s="86"/>
+      <c r="B111" s="98"/>
       <c r="C111" s="88"/>
       <c r="D111" s="90"/>
-      <c r="E111" s="94"/>
+      <c r="E111" s="92"/>
       <c r="F111" s="44">
         <v>8</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I111" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J111" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J111" s="94"/>
     </row>
     <row r="112" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="84"/>
-      <c r="B112" s="86"/>
+      <c r="A112" s="86"/>
+      <c r="B112" s="98"/>
       <c r="C112" s="88"/>
       <c r="D112" s="90"/>
-      <c r="E112" s="94"/>
+      <c r="E112" s="92"/>
       <c r="F112" s="44">
         <v>9</v>
       </c>
       <c r="G112" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H112" s="40"/>
       <c r="I112" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J112" s="106"/>
+        <v>82</v>
+      </c>
+      <c r="J112" s="95"/>
     </row>
     <row r="113" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="83">
+      <c r="A113" s="85">
         <v>1</v>
       </c>
-      <c r="B113" s="85" t="s">
-        <v>113</v>
+      <c r="B113" s="97" t="s">
+        <v>112</v>
       </c>
       <c r="C113" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D113" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="E113" s="93" t="s">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="E113" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F113" s="44">
         <v>1</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H113" s="38"/>
-      <c r="I113" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J113" s="104" t="s">
-        <v>179</v>
+      <c r="I113" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J113" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="84"/>
-      <c r="B114" s="86"/>
+      <c r="A114" s="86"/>
+      <c r="B114" s="98"/>
       <c r="C114" s="88"/>
       <c r="D114" s="90"/>
-      <c r="E114" s="94"/>
+      <c r="E114" s="92"/>
       <c r="F114" s="44">
         <v>2</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H114" s="40"/>
       <c r="I114" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J114" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J114" s="94"/>
     </row>
     <row r="115" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="84"/>
-      <c r="B115" s="86"/>
+      <c r="A115" s="86"/>
+      <c r="B115" s="98"/>
       <c r="C115" s="88"/>
       <c r="D115" s="90"/>
-      <c r="E115" s="94"/>
+      <c r="E115" s="92"/>
       <c r="F115" s="44">
         <v>3</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H115" s="40"/>
       <c r="I115" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J115" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J115" s="94"/>
     </row>
     <row r="116" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="84"/>
-      <c r="B116" s="86"/>
+      <c r="A116" s="86"/>
+      <c r="B116" s="98"/>
       <c r="C116" s="88"/>
       <c r="D116" s="90"/>
-      <c r="E116" s="94"/>
+      <c r="E116" s="92"/>
       <c r="F116" s="44">
         <v>4</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H116" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I116" s="33"/>
-      <c r="J116" s="105"/>
+      <c r="J116" s="94"/>
     </row>
     <row r="117" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="84"/>
-      <c r="B117" s="86"/>
+      <c r="A117" s="86"/>
+      <c r="B117" s="98"/>
       <c r="C117" s="88"/>
       <c r="D117" s="90"/>
-      <c r="E117" s="94"/>
+      <c r="E117" s="92"/>
       <c r="F117" s="44">
         <v>6</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H117" s="40"/>
       <c r="I117" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J117" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J117" s="94"/>
     </row>
     <row r="118" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="84"/>
-      <c r="B118" s="86"/>
+      <c r="A118" s="86"/>
+      <c r="B118" s="98"/>
       <c r="C118" s="88"/>
       <c r="D118" s="90"/>
-      <c r="E118" s="94"/>
+      <c r="E118" s="92"/>
       <c r="F118" s="44">
         <v>7</v>
       </c>
       <c r="G118" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H118" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I118" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J118" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J118" s="94"/>
     </row>
     <row r="119" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="84"/>
-      <c r="B119" s="86"/>
+      <c r="A119" s="86"/>
+      <c r="B119" s="98"/>
       <c r="C119" s="88"/>
       <c r="D119" s="90"/>
-      <c r="E119" s="94"/>
+      <c r="E119" s="92"/>
       <c r="F119" s="44">
         <v>8</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H119" s="40"/>
       <c r="I119" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J119" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J119" s="94"/>
     </row>
     <row r="120" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="84"/>
-      <c r="B120" s="86"/>
+      <c r="A120" s="86"/>
+      <c r="B120" s="98"/>
       <c r="C120" s="88"/>
       <c r="D120" s="90"/>
-      <c r="E120" s="94"/>
+      <c r="E120" s="92"/>
       <c r="F120" s="44">
         <v>9</v>
       </c>
       <c r="G120" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H120" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H120" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I120" s="33"/>
-      <c r="J120" s="105"/>
+      <c r="J120" s="94"/>
     </row>
     <row r="121" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="84"/>
-      <c r="B121" s="86"/>
+      <c r="A121" s="86"/>
+      <c r="B121" s="98"/>
       <c r="C121" s="88"/>
       <c r="D121" s="90"/>
-      <c r="E121" s="94"/>
+      <c r="E121" s="92"/>
       <c r="F121" s="44">
         <v>10</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H121" s="40"/>
       <c r="I121" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="J121" s="95"/>
+    </row>
+    <row r="122" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="85">
+        <v>1</v>
+      </c>
+      <c r="B122" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="J121" s="106"/>
-    </row>
-    <row r="122" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="83">
-        <v>1</v>
-      </c>
-      <c r="B122" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="C122" s="87" t="s">
-        <v>173</v>
-      </c>
       <c r="D122" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="E122" s="93" t="s">
-        <v>120</v>
+        <v>86</v>
+      </c>
+      <c r="E122" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F122" s="44">
         <v>1</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H122" s="38"/>
-      <c r="I122" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J122" s="104" t="s">
-        <v>179</v>
+      <c r="I122" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J122" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="84"/>
-      <c r="B123" s="86"/>
+      <c r="A123" s="86"/>
+      <c r="B123" s="98"/>
       <c r="C123" s="88"/>
       <c r="D123" s="90"/>
-      <c r="E123" s="94"/>
+      <c r="E123" s="92"/>
       <c r="F123" s="44">
         <v>2</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H123" s="40"/>
       <c r="I123" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J123" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J123" s="94"/>
     </row>
     <row r="124" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="84"/>
-      <c r="B124" s="86"/>
+      <c r="A124" s="86"/>
+      <c r="B124" s="98"/>
       <c r="C124" s="88"/>
       <c r="D124" s="90"/>
-      <c r="E124" s="94"/>
+      <c r="E124" s="92"/>
       <c r="F124" s="44">
         <v>3</v>
       </c>
       <c r="G124" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H124" s="40"/>
       <c r="I124" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J124" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J124" s="94"/>
     </row>
     <row r="125" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="84"/>
-      <c r="B125" s="86"/>
+      <c r="A125" s="86"/>
+      <c r="B125" s="98"/>
       <c r="C125" s="88"/>
       <c r="D125" s="90"/>
-      <c r="E125" s="94"/>
+      <c r="E125" s="92"/>
       <c r="F125" s="44">
         <v>4</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H125" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I125" s="33"/>
-      <c r="J125" s="105"/>
+      <c r="J125" s="94"/>
     </row>
     <row r="126" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="84"/>
-      <c r="B126" s="86"/>
+      <c r="A126" s="86"/>
+      <c r="B126" s="98"/>
       <c r="C126" s="88"/>
       <c r="D126" s="90"/>
-      <c r="E126" s="94"/>
+      <c r="E126" s="92"/>
       <c r="F126" s="44">
         <v>6</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H126" s="40"/>
       <c r="I126" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J126" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J126" s="94"/>
     </row>
     <row r="127" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="84"/>
-      <c r="B127" s="86"/>
+      <c r="A127" s="86"/>
+      <c r="B127" s="98"/>
       <c r="C127" s="88"/>
       <c r="D127" s="90"/>
-      <c r="E127" s="94"/>
+      <c r="E127" s="92"/>
       <c r="F127" s="44">
         <v>7</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I127" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J127" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J127" s="94"/>
     </row>
     <row r="128" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="84"/>
-      <c r="B128" s="86"/>
+      <c r="A128" s="86"/>
+      <c r="B128" s="98"/>
       <c r="C128" s="88"/>
       <c r="D128" s="90"/>
-      <c r="E128" s="94"/>
+      <c r="E128" s="92"/>
       <c r="F128" s="44">
         <v>8</v>
       </c>
       <c r="G128" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H128" s="40"/>
       <c r="I128" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J128" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J128" s="94"/>
     </row>
     <row r="129" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="84"/>
-      <c r="B129" s="86"/>
+      <c r="A129" s="86"/>
+      <c r="B129" s="98"/>
       <c r="C129" s="88"/>
       <c r="D129" s="90"/>
-      <c r="E129" s="94"/>
+      <c r="E129" s="92"/>
       <c r="F129" s="44">
         <v>9</v>
       </c>
       <c r="G129" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H129" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H129" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="I129" s="33"/>
-      <c r="J129" s="105"/>
+      <c r="J129" s="94"/>
     </row>
     <row r="130" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="84"/>
-      <c r="B130" s="86"/>
+      <c r="A130" s="86"/>
+      <c r="B130" s="98"/>
       <c r="C130" s="88"/>
       <c r="D130" s="90"/>
-      <c r="E130" s="94"/>
+      <c r="E130" s="92"/>
       <c r="F130" s="44">
         <v>10</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H130" s="40"/>
       <c r="I130" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="J130" s="106"/>
+        <v>155</v>
+      </c>
+      <c r="J130" s="95"/>
     </row>
     <row r="131" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="83">
+      <c r="A131" s="85">
         <v>1</v>
       </c>
-      <c r="B131" s="85" t="s">
-        <v>115</v>
+      <c r="B131" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="C131" s="87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D131" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E131" s="93" t="s">
-        <v>120</v>
+        <v>99</v>
+      </c>
+      <c r="E131" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="F131" s="44">
         <v>1</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H131" s="38"/>
-      <c r="I131" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J131" s="104" t="s">
-        <v>179</v>
+      <c r="I131" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J131" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="84"/>
-      <c r="B132" s="86"/>
+      <c r="A132" s="86"/>
+      <c r="B132" s="98"/>
       <c r="C132" s="88"/>
       <c r="D132" s="90"/>
-      <c r="E132" s="94"/>
+      <c r="E132" s="92"/>
       <c r="F132" s="44">
         <v>2</v>
       </c>
       <c r="G132" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H132" s="40"/>
       <c r="I132" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J132" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J132" s="94"/>
     </row>
     <row r="133" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="84"/>
-      <c r="B133" s="86"/>
+      <c r="A133" s="86"/>
+      <c r="B133" s="98"/>
       <c r="C133" s="88"/>
       <c r="D133" s="90"/>
-      <c r="E133" s="94"/>
+      <c r="E133" s="92"/>
       <c r="F133" s="44">
         <v>3</v>
       </c>
       <c r="G133" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H133" s="40"/>
       <c r="I133" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J133" s="105"/>
+        <v>121</v>
+      </c>
+      <c r="J133" s="94"/>
     </row>
     <row r="134" spans="1:10" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="84"/>
-      <c r="B134" s="86"/>
+      <c r="A134" s="86"/>
+      <c r="B134" s="98"/>
       <c r="C134" s="88"/>
       <c r="D134" s="90"/>
-      <c r="E134" s="94"/>
+      <c r="E134" s="92"/>
       <c r="F134" s="44">
         <v>4</v>
       </c>
       <c r="G134" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H134" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I134" s="33"/>
-      <c r="J134" s="105"/>
+      <c r="J134" s="94"/>
     </row>
     <row r="135" spans="1:10" s="43" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="84"/>
-      <c r="B135" s="86"/>
+      <c r="A135" s="86"/>
+      <c r="B135" s="98"/>
       <c r="C135" s="88"/>
       <c r="D135" s="90"/>
-      <c r="E135" s="94"/>
+      <c r="E135" s="92"/>
       <c r="F135" s="44">
         <v>6</v>
       </c>
       <c r="G135" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H135" s="40"/>
       <c r="I135" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J135" s="105"/>
+        <v>70</v>
+      </c>
+      <c r="J135" s="94"/>
     </row>
     <row r="136" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="84"/>
-      <c r="B136" s="86"/>
+      <c r="A136" s="86"/>
+      <c r="B136" s="98"/>
       <c r="C136" s="88"/>
       <c r="D136" s="90"/>
-      <c r="E136" s="94"/>
+      <c r="E136" s="92"/>
       <c r="F136" s="44">
         <v>7</v>
       </c>
       <c r="G136" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H136" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I136" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J136" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="J136" s="94"/>
     </row>
     <row r="137" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="84"/>
-      <c r="B137" s="86"/>
+      <c r="A137" s="86"/>
+      <c r="B137" s="98"/>
       <c r="C137" s="88"/>
       <c r="D137" s="90"/>
-      <c r="E137" s="94"/>
+      <c r="E137" s="92"/>
       <c r="F137" s="44">
         <v>8</v>
       </c>
       <c r="G137" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H137" s="40"/>
       <c r="I137" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J137" s="105"/>
+        <v>63</v>
+      </c>
+      <c r="J137" s="94"/>
     </row>
     <row r="138" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="84"/>
-      <c r="B138" s="86"/>
+      <c r="A138" s="86"/>
+      <c r="B138" s="98"/>
       <c r="C138" s="88"/>
       <c r="D138" s="90"/>
-      <c r="E138" s="94"/>
+      <c r="E138" s="92"/>
       <c r="F138" s="44">
         <v>9</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H138" s="40"/>
       <c r="I138" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J138" s="106"/>
+        <v>99</v>
+      </c>
+      <c r="J138" s="95"/>
     </row>
     <row r="139" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="83">
+      <c r="A139" s="85">
         <v>21</v>
       </c>
-      <c r="B139" s="85" t="s">
+      <c r="B139" s="97" t="s">
         <v>115</v>
       </c>
       <c r="C139" s="87" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D139" s="89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E139" s="89"/>
       <c r="F139" s="44">
         <v>1</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H139" s="38"/>
-      <c r="I139" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="J139" s="104" t="s">
-        <v>180</v>
+      <c r="I139" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J139" s="93" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="84"/>
-      <c r="B140" s="86"/>
+      <c r="A140" s="86"/>
+      <c r="B140" s="98"/>
       <c r="C140" s="88"/>
       <c r="D140" s="90"/>
       <c r="E140" s="90"/>
@@ -5527,17 +5536,17 @@
         <v>2</v>
       </c>
       <c r="G140" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H140" s="40"/>
       <c r="I140" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J140" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="J140" s="94"/>
     </row>
     <row r="141" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="84"/>
-      <c r="B141" s="86"/>
+      <c r="A141" s="86"/>
+      <c r="B141" s="98"/>
       <c r="C141" s="88"/>
       <c r="D141" s="90"/>
       <c r="E141" s="90"/>
@@ -5545,92 +5554,28 @@
         <v>4</v>
       </c>
       <c r="G141" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H141" s="40"/>
       <c r="I141" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="J141" s="106"/>
+        <v>85</v>
+      </c>
+      <c r="J141" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:D76"/>
-    <mergeCell ref="E68:E76"/>
-    <mergeCell ref="J68:J76"/>
-    <mergeCell ref="B50:B76"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="E59:E67"/>
-    <mergeCell ref="J105:J112"/>
-    <mergeCell ref="J113:J121"/>
-    <mergeCell ref="J122:J130"/>
-    <mergeCell ref="J131:J138"/>
-    <mergeCell ref="J139:J141"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="J94:J98"/>
-    <mergeCell ref="J99:J104"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="J50:J58"/>
-    <mergeCell ref="J77:J85"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="J59:J67"/>
-    <mergeCell ref="J5:J13"/>
-    <mergeCell ref="J14:J22"/>
-    <mergeCell ref="J23:J31"/>
-    <mergeCell ref="J32:J40"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="B131:B138"/>
-    <mergeCell ref="C131:C138"/>
-    <mergeCell ref="D131:D138"/>
-    <mergeCell ref="E131:E138"/>
-    <mergeCell ref="A122:A130"/>
-    <mergeCell ref="B122:B130"/>
-    <mergeCell ref="C122:C130"/>
-    <mergeCell ref="D122:D130"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="B113:B121"/>
-    <mergeCell ref="C113:C121"/>
-    <mergeCell ref="D113:D121"/>
-    <mergeCell ref="E113:E121"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="E50:E58"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:D85"/>
-    <mergeCell ref="E77:E85"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:D22"/>
-    <mergeCell ref="E14:E22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="E23:E31"/>
-    <mergeCell ref="B23:B40"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="E32:E40"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="D5:D13"/>
+    <mergeCell ref="E5:E13"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="E139:E141"/>
     <mergeCell ref="D94:D98"/>
     <mergeCell ref="E94:E98"/>
     <mergeCell ref="C94:C98"/>
@@ -5652,23 +5597,87 @@
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:D22"/>
+    <mergeCell ref="E14:E22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="E23:E31"/>
+    <mergeCell ref="B23:B40"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="E32:E40"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:D85"/>
+    <mergeCell ref="E77:E85"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="B113:B121"/>
+    <mergeCell ref="C113:C121"/>
+    <mergeCell ref="D113:D121"/>
+    <mergeCell ref="E113:E121"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
     <mergeCell ref="A105:A112"/>
     <mergeCell ref="B105:B112"/>
     <mergeCell ref="C105:C112"/>
     <mergeCell ref="D105:D112"/>
     <mergeCell ref="E105:E112"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="C5:C13"/>
-    <mergeCell ref="D5:D13"/>
-    <mergeCell ref="E5:E13"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="B131:B138"/>
+    <mergeCell ref="C131:C138"/>
+    <mergeCell ref="D131:D138"/>
+    <mergeCell ref="E131:E138"/>
+    <mergeCell ref="A122:A130"/>
+    <mergeCell ref="B122:B130"/>
+    <mergeCell ref="C122:C130"/>
+    <mergeCell ref="D122:D130"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="J50:J58"/>
+    <mergeCell ref="J77:J85"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J59:J67"/>
+    <mergeCell ref="J5:J13"/>
+    <mergeCell ref="J14:J22"/>
+    <mergeCell ref="J23:J31"/>
+    <mergeCell ref="J32:J40"/>
+    <mergeCell ref="J105:J112"/>
+    <mergeCell ref="J113:J121"/>
+    <mergeCell ref="J122:J130"/>
+    <mergeCell ref="J131:J138"/>
+    <mergeCell ref="J139:J141"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J94:J98"/>
+    <mergeCell ref="J99:J104"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:D76"/>
+    <mergeCell ref="E68:E76"/>
+    <mergeCell ref="J68:J76"/>
+    <mergeCell ref="B50:B76"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="E59:E67"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E50:E58"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
